--- a/配置文档/汇总表.xlsx
+++ b/配置文档/汇总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
   <si>
     <t>表名</t>
   </si>
@@ -121,6 +121,21 @@
     <t>cfg_SpeciallyEffect_特效配置</t>
   </si>
   <si>
+    <t xml:space="preserve">cfg_MapFixedSet_固定地图图集 </t>
+  </si>
+  <si>
+    <t>cfg_MapFixedMaterial_固定地图用材料</t>
+  </si>
+  <si>
+    <t>cfg_GenerateFixedMap_固定地图配置</t>
+  </si>
+  <si>
+    <t>cfg_MapPassType_地图可通过类型</t>
+  </si>
+  <si>
+    <t>cfg_MapEdge_地图边缘连接配置</t>
+  </si>
+  <si>
     <t>cfg_MapImageSet_地图图像集</t>
   </si>
   <si>
@@ -136,10 +151,7 @@
     <t>cfg_MapNavigate_地图导航层</t>
   </si>
   <si>
-    <t>cfg_MapMaterial_生成地图用材料</t>
-  </si>
-  <si>
-    <t>cfg_GenerateFixedMap_固定地图配置</t>
+    <t>cfg_MapMaterial_随机生成地图用材料</t>
   </si>
   <si>
     <t>cfg_GenerateBottomMap_随机生成地图方式</t>
@@ -154,12 +166,6 @@
     <t>cfg_GenerateAdornMap_装饰绘制层</t>
   </si>
   <si>
-    <t>cfg_MapPassType_地图可通过类型</t>
-  </si>
-  <si>
-    <t>cfg_MapEdge_地图边缘连接配置</t>
-  </si>
-  <si>
     <t>cfg_BigMapMaterial_大地图节点</t>
   </si>
   <si>
@@ -292,7 +298,7 @@
     <t>cfg_MapBuildLable_建造列表标签</t>
   </si>
   <si>
-    <t>cfg_MapBuildList_建造子列表</t>
+    <t>cfg_MapBuildItem_建造项数据</t>
   </si>
   <si>
     <t>cfg_BuildRule_建造规则</t>
@@ -411,6 +417,24 @@
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
+    <t>该表用于配置在地图编辑器中图集数据
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>该表只配置 地图生成用到的材料，
+不管是哪层的
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>该表只配置 固定副本地图
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>该配置表用于保存 地图边缘连接相关图块
+相当于相同的材料，只是绘制上的不同，不改变数据
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
     <t>用于配置图像层级数据
 不能修改</t>
   </si>
@@ -420,15 +444,6 @@
   <si>
     <t>该表用于备注地图导航层数据
 不能修改</t>
-  </si>
-  <si>
-    <t>该表只配置 地图生成用到的材料，
-不管是哪层的
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>该表只配置 固定副本地图
-数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
     <t>该表只配置 生成方式的总体参数，如生成地图的长宽，是否需要有边界墙壁， 边界墙壁的材料（图集id+图集内序号）,墙壁厚度，生成密度，平滑度，区域最小尺寸小于这个尺寸就清除,  生成种子id(生成种子表的id)  ，包含随机大结构id列表，
@@ -439,11 +454,6 @@
     <t>该表配置地图在生成玩基础的空地，
 墙壁，以及一些相同优先级的如，悬崖等
 地块之后，上层的绘制
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>该配置表用于保存 地图边缘连接相关图块
-相当于相同的材料，只是绘制上的不同，不改变数据
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
@@ -1001,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <f>HYPERLINK("buff效果相关\buff配置.xlsx", "buff效果相关\buff配置.xlsx")</f>
@@ -1038,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <f>HYPERLINK("buff效果相关\buff配置.xlsx", "buff效果相关\buff配置.xlsx")</f>
@@ -1050,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <f>HYPERLINK("UI相关\Ui界面配置.xlsx", "UI相关\Ui界面配置.xlsx")</f>
@@ -1062,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <f>HYPERLINK("UI相关\主界面更新日志.xlsx", "UI相关\主界面更新日志.xlsx")</f>
@@ -1074,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <f>HYPERLINK("UI相关\数据库界面及成就相关配置.xlsx", "UI相关\数据库界面及成就相关配置.xlsx")</f>
@@ -1086,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <f>HYPERLINK("UI相关\数据库界面及成就相关配置.xlsx", "UI相关\数据库界面及成就相关配置.xlsx")</f>
@@ -1098,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <f>HYPERLINK("UI相关\科技树解锁界面相关配置.xlsx", "UI相关\科技树解锁界面相关配置.xlsx")</f>
@@ -1110,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <f>HYPERLINK("UI相关\科技树解锁界面相关配置.xlsx", "UI相关\科技树解锁界面相关配置.xlsx")</f>
@@ -1122,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <f>HYPERLINK("UI相关\科技树解锁界面相关配置.xlsx", "UI相关\科技树解锁界面相关配置.xlsx")</f>
@@ -1134,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <f>HYPERLINK("UI相关\配置界面相关.xlsx", "UI相关\配置界面相关.xlsx")</f>
@@ -1146,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <f>HYPERLINK("UI相关\配置界面相关.xlsx", "UI相关\配置界面相关.xlsx")</f>
@@ -1158,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <f>HYPERLINK("UI相关\配置界面相关.xlsx", "UI相关\配置界面相关.xlsx")</f>
@@ -1170,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <f>HYPERLINK("全局配置相关\配置特殊功能表.xlsx", "全局配置相关\配置特殊功能表.xlsx")</f>
@@ -1182,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C15">
         <f>HYPERLINK("全局配置相关\配置特殊功能表.xlsx", "全局配置相关\配置特殊功能表.xlsx")</f>
@@ -1194,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C16">
         <f>HYPERLINK("全局配置相关\默认配置表.xlsx", "全局配置相关\默认配置表.xlsx")</f>
@@ -1206,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <f>HYPERLINK("全局配置相关\默认配置表.xlsx", "全局配置相关\默认配置表.xlsx")</f>
@@ -1218,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <f>HYPERLINK("全局配置相关\默认配置表.xlsx", "全局配置相关\默认配置表.xlsx")</f>
@@ -1230,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <f>HYPERLINK("全局配置相关\默认配置表.xlsx", "全局配置相关\默认配置表.xlsx")</f>
@@ -1242,7 +1252,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <f>HYPERLINK("全局配置相关\默认配置表.xlsx", "全局配置相关\默认配置表.xlsx")</f>
@@ -1254,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21">
         <f>HYPERLINK("功能配置相关\函数模板.xlsx", "功能配置相关\函数模板.xlsx")</f>
@@ -1266,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <f>HYPERLINK("功能配置相关\噪声.xlsx", "功能配置相关\噪声.xlsx")</f>
@@ -1278,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <f>HYPERLINK("功能配置相关\噪声.xlsx", "功能配置相关\噪声.xlsx")</f>
@@ -1290,7 +1300,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C24">
         <f>HYPERLINK("功能配置相关\相机.xlsx", "功能配置相关\相机.xlsx")</f>
@@ -1302,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C25">
         <f>HYPERLINK("功能配置相关\相机.xlsx", "功能配置相关\相机.xlsx")</f>
@@ -1314,7 +1324,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1326,7 +1336,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C27">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1338,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C28">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1350,7 +1360,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1362,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C30">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1374,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31">
         <f>HYPERLINK("动画相关\帧动画.xlsx", "动画相关\帧动画.xlsx")</f>
@@ -1386,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C32">
         <f>HYPERLINK("动画相关\序列图.xlsx", "动画相关\序列图.xlsx")</f>
@@ -1398,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33">
         <f>HYPERLINK("动画相关\特效.xlsx", "动画相关\特效.xlsx")</f>
@@ -1410,10 +1420,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C34">
-        <f>HYPERLINK("地图相关\图块相关.xlsx", "地图相关\图块相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\固定地图配置.xlsx", "地图相关\固定地图配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1422,10 +1432,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C35">
-        <f>HYPERLINK("地图相关\图块相关.xlsx", "地图相关\图块相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\固定地图配置.xlsx", "地图相关\固定地图配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1434,10 +1444,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C36">
-        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\固定地图配置.xlsx", "地图相关\固定地图配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1446,10 +1456,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C37">
-        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\固定地图配置.xlsx", "地图相关\固定地图配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1458,10 +1468,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C38">
-        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\固定地图配置.xlsx", "地图相关\固定地图配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1470,10 +1480,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C39">
-        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\图块相关.xlsx", "地图相关\图块相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1482,10 +1492,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C40">
-        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\图块相关.xlsx", "地图相关\图块相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1494,10 +1504,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41">
-        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1506,10 +1516,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42">
-        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1518,10 +1528,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43">
-        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\图层相关.xlsx", "地图相关\图层相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1530,7 +1540,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
@@ -1542,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
@@ -1554,7 +1564,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
@@ -1566,10 +1576,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47">
-        <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1578,10 +1588,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48">
-        <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
+        <f>HYPERLINK("地图相关\地图生成.xlsx", "地图相关\地图生成.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1590,7 +1600,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C49">
         <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
@@ -1602,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C50">
         <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
@@ -1614,7 +1624,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51">
         <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
@@ -1626,10 +1636,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52">
-        <f>HYPERLINK("地图相关\关卡刷怪相关\单位组配置.xlsx", "地图相关\关卡刷怪相关\单位组配置.xlsx")</f>
+        <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1638,10 +1648,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53">
-        <f>HYPERLINK("地图相关\关卡刷怪相关\单位组配置.xlsx", "地图相关\关卡刷怪相关\单位组配置.xlsx")</f>
+        <f>HYPERLINK("地图相关\大地图生成.xlsx", "地图相关\大地图生成.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1650,10 +1660,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C54">
-        <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\关卡刷怪相关\单位组配置.xlsx", "地图相关\关卡刷怪相关\单位组配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1662,10 +1672,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55">
-        <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
+        <f>HYPERLINK("地图相关\关卡刷怪相关\单位组配置.xlsx", "地图相关\关卡刷怪相关\单位组配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1684,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C56">
         <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
@@ -1686,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
@@ -1698,7 +1708,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
@@ -1710,7 +1720,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59">
         <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
@@ -1722,10 +1732,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C60">
-        <f>HYPERLINK("声音相关\音乐配置.xlsx", "声音相关\音乐配置.xlsx")</f>
+        <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1734,10 +1744,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="C61">
-        <f>HYPERLINK("声音相关\音效配置.xlsx", "声音相关\音效配置.xlsx")</f>
+        <f>HYPERLINK("地图相关\关卡刷怪相关\战役副本相关.xlsx", "地图相关\关卡刷怪相关\战役副本相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1746,10 +1756,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C62">
-        <f>HYPERLINK("子弹及效果相关\子弹脚本配置.xlsx", "子弹及效果相关\子弹脚本配置.xlsx")</f>
+        <f>HYPERLINK("声音相关\音乐配置.xlsx", "声音相关\音乐配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1758,10 +1768,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C63">
-        <f>HYPERLINK("子弹及效果相关\子弹脚本配置.xlsx", "子弹及效果相关\子弹脚本配置.xlsx")</f>
+        <f>HYPERLINK("声音相关\音效配置.xlsx", "声音相关\音效配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1770,7 +1780,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C64">
         <f>HYPERLINK("子弹及效果相关\子弹脚本配置.xlsx", "子弹及效果相关\子弹脚本配置.xlsx")</f>
@@ -1782,10 +1792,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C65">
-        <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\子弹脚本配置.xlsx", "子弹及效果相关\子弹脚本配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1794,10 +1804,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C66">
-        <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\子弹脚本配置.xlsx", "子弹及效果相关\子弹脚本配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1806,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C67">
         <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
@@ -1818,7 +1828,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C68">
         <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
@@ -1830,10 +1840,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C69">
-        <f>HYPERLINK("子弹及效果相关\爆炸配置.xlsx", "子弹及效果相关\爆炸配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1842,10 +1852,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C70">
-        <f>HYPERLINK("子弹及效果相关\爆炸配置.xlsx", "子弹及效果相关\爆炸配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\子弹配置.xlsx", "子弹及效果相关\子弹配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1854,10 +1864,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C71">
-        <f>HYPERLINK("实体配置相关\单位配置.xlsx", "实体配置相关\单位配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\爆炸配置.xlsx", "子弹及效果相关\爆炸配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1866,10 +1876,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C72">
-        <f>HYPERLINK("实体配置相关\单位配置.xlsx", "实体配置相关\单位配置.xlsx")</f>
+        <f>HYPERLINK("子弹及效果相关\爆炸配置.xlsx", "子弹及效果相关\爆炸配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1878,10 +1888,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C73">
-        <f>HYPERLINK("实体配置相关\实体事件配置.xlsx", "实体配置相关\实体事件配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\单位配置.xlsx", "实体配置相关\单位配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1890,10 +1900,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C74">
-        <f>HYPERLINK("实体配置相关\实体显示相关配置.xlsx", "实体配置相关\实体显示相关配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\单位配置.xlsx", "实体配置相关\单位配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1902,10 +1912,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75">
-        <f>HYPERLINK("实体配置相关\实体显示相关配置.xlsx", "实体配置相关\实体显示相关配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\实体事件配置.xlsx", "实体配置相关\实体事件配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1914,7 +1924,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C76">
         <f>HYPERLINK("实体配置相关\实体显示相关配置.xlsx", "实体配置相关\实体显示相关配置.xlsx")</f>
@@ -1926,10 +1936,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C77">
-        <f>HYPERLINK("实体配置相关\实体相关配置.xlsx", "实体配置相关\实体相关配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\实体显示相关配置.xlsx", "实体配置相关\实体显示相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1938,10 +1948,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C78">
-        <f>HYPERLINK("实体配置相关\实体相关配置.xlsx", "实体配置相关\实体相关配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\实体显示相关配置.xlsx", "实体配置相关\实体显示相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1950,10 +1960,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C79">
-        <f>HYPERLINK("实体配置相关\建筑配置.xlsx", "实体配置相关\建筑配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\实体相关配置.xlsx", "实体配置相关\实体相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1962,10 +1972,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C80">
-        <f>HYPERLINK("实体配置相关\无人机配置.xlsx", "实体配置相关\无人机配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\实体相关配置.xlsx", "实体配置相关\实体相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1974,10 +1984,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81">
-        <f>HYPERLINK("实体配置相关\武器配置.xlsx", "实体配置相关\武器配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\建筑配置.xlsx", "实体配置相关\建筑配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1986,10 +1996,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C82">
-        <f>HYPERLINK("实体配置相关\武器配置.xlsx", "实体配置相关\武器配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\无人机配置.xlsx", "实体配置相关\无人机配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -1998,10 +2008,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C83">
-        <f>HYPERLINK("实体配置相关\炮塔配置.xlsx", "实体配置相关\炮塔配置.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\武器配置.xlsx", "实体配置相关\武器配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,10 +2020,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C84">
-        <f>HYPERLINK("属性相关\属性基础表.xlsx", "属性相关\属性基础表.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\武器配置.xlsx", "实体配置相关\武器配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2022,10 +2032,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85">
-        <f>HYPERLINK("属性相关\属性基础表.xlsx", "属性相关\属性基础表.xlsx")</f>
+        <f>HYPERLINK("实体配置相关\炮塔配置.xlsx", "实体配置相关\炮塔配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2034,7 +2044,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86">
         <f>HYPERLINK("属性相关\属性基础表.xlsx", "属性相关\属性基础表.xlsx")</f>
@@ -2046,10 +2056,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87">
-        <f>HYPERLINK("属性相关\属性配置.xlsx", "属性相关\属性配置.xlsx")</f>
+        <f>HYPERLINK("属性相关\属性基础表.xlsx", "属性相关\属性基础表.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2058,10 +2068,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C88">
-        <f>HYPERLINK("属性相关\属性配置.xlsx", "属性相关\属性配置.xlsx")</f>
+        <f>HYPERLINK("属性相关\属性基础表.xlsx", "属性相关\属性基础表.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2070,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C89">
         <f>HYPERLINK("属性相关\属性配置.xlsx", "属性相关\属性配置.xlsx")</f>
@@ -2082,10 +2092,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C90">
-        <f>HYPERLINK("建造相关\建造列表相关配置.xlsx", "建造相关\建造列表相关配置.xlsx")</f>
+        <f>HYPERLINK("属性相关\属性配置.xlsx", "属性相关\属性配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2094,10 +2104,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C91">
-        <f>HYPERLINK("建造相关\建造列表相关配置.xlsx", "建造相关\建造列表相关配置.xlsx")</f>
+        <f>HYPERLINK("属性相关\属性配置.xlsx", "属性相关\属性配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2106,7 +2116,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C92">
         <f>HYPERLINK("建造相关\建造列表相关配置.xlsx", "建造相关\建造列表相关配置.xlsx")</f>
@@ -2118,10 +2128,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93">
-        <f>HYPERLINK("游戏其他配置\阵营相关.xlsx", "游戏其他配置\阵营相关.xlsx")</f>
+        <f>HYPERLINK("建造相关\建造列表相关配置.xlsx", "建造相关\建造列表相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2130,10 +2140,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="C94">
-        <f>HYPERLINK("游戏其他配置\难度相关.xlsx", "游戏其他配置\难度相关.xlsx")</f>
+        <f>HYPERLINK("建造相关\建造列表相关配置.xlsx", "建造相关\建造列表相关配置.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2142,10 +2152,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95">
-        <f>HYPERLINK("道具货币相关\背包相关.xlsx", "道具货币相关\背包相关.xlsx")</f>
+        <f>HYPERLINK("游戏其他配置\阵营相关.xlsx", "游戏其他配置\阵营相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2154,10 +2164,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C96">
-        <f>HYPERLINK("道具货币相关\货币相关.xlsx", "道具货币相关\货币相关.xlsx")</f>
+        <f>HYPERLINK("游戏其他配置\难度相关.xlsx", "游戏其他配置\难度相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2166,10 +2176,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C97">
-        <f>HYPERLINK("道具货币相关\道具相关.xlsx", "道具货币相关\道具相关.xlsx")</f>
+        <f>HYPERLINK("道具货币相关\背包相关.xlsx", "道具货币相关\背包相关.xlsx")</f>
         <v>0</v>
       </c>
     </row>
@@ -2178,9 +2188,33 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98">
+        <f>HYPERLINK("道具货币相关\货币相关.xlsx", "道具货币相关\货币相关.xlsx")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99">
+        <f>HYPERLINK("道具货币相关\道具相关.xlsx", "道具货币相关\道具相关.xlsx")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100">
         <f>HYPERLINK("错误处理\错误码.xlsx", "错误处理\错误码.xlsx")</f>
         <v>0</v>
       </c>
